--- a/jupyter_notebook/seongho/file/지출액/건기식_매출액.xlsx
+++ b/jupyter_notebook/seongho/file/지출액/건기식_매출액.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\miniproject-2\jupyter_notebook\seongho\file\지출액\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15216" windowHeight="7644"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -468,12 +468,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -481,39 +481,39 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
-        <v>2522050463</v>
+        <v>4426850463</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
-        <v>2950786930</v>
+        <v>4669986930</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
-        <v>3325388036</v>
+        <v>4927388036</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
-        <v>4032130137</v>
+        <v>5326430137</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>6142915244</v>
       </c>
@@ -534,9 +534,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -552,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -560,7 +560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -568,7 +568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -584,7 +584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -592,7 +592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
